--- a/data/Data tables for Australia's mothers and babies 2018—data visualisations/Table 3 notes.xlsx
+++ b/data/Data tables for Australia's mothers and babies 2018—data visualisations/Table 3 notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d08107d86ebdc691/Desktop/Project/Maternal Health and Adoption/Data tables for Australia's mothers and babies 2018—data visualisations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d08107d86ebdc691/Documents/GitHub/finalproject/data/Data tables for Australia's mothers and babies 2018—data visualisations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CF44C2-F51D-41ED-B473-4704CC2EC318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57367950-1296-4D46-A542-F34C6BDBBA57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0BAE0719-7532-498A-B3F4-57251A003CC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D77D5C3-85D6-44C5-BDDA-A0F6CAB4D863}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3 notes" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{AFF0B441-A208-44D9-AD3D-4421300BE499}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9FAE8EDF-5E31-4F89-AEF9-A65E0A0E1097}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,6 +480,7 @@
       <sheetName val="Table 6.4"/>
       <sheetName val="Table 1 notes"/>
       <sheetName val="Table 2 notes"/>
+      <sheetName val="Sheet1"/>
       <sheetName val="Table 3 notes"/>
       <sheetName val="Table 4 notes"/>
       <sheetName val="Table 5 notes"/>
@@ -522,6 +523,7 @@
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
       <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7310,7 +7312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB9EAB0-25EC-4B11-A75C-9B4E8873AC56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E32A1C9-79B2-4A88-B5A8-B8ADDCC2B66A}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:E72"/>
   <sheetViews>
